--- a/LoopGame/LoopGame/Content/csv/TestStage05.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage05.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -647,13 +647,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -697,16 +697,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>5</v>

--- a/LoopGame/LoopGame/Content/csv/TestStage05.xlsx
+++ b/LoopGame/LoopGame/Content/csv/TestStage05.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
